--- a/biology/Médecine/Implantologie/Implantologie.xlsx
+++ b/biology/Médecine/Implantologie/Implantologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'implantologie est une branche de la chirurgie dentaire qui consiste à poser des implants. Les médecins spécialistes en chirurgie maxillo-faciale et stomatologie, ainsi que les chirurgiens-dentistes sont habilités à pratiquer cette chirurgie.
 Des formations universitaires sont délivrées : chaque année, seul un petit nombre de praticiens sont diplômés.
@@ -515,14 +527,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les techniques de prothèses conventionnelles permettent de remplacer avec plus ou moins de bonheur la couronne des dents détruites ou absentes. Aucune de ces techniques ne permet de remplacer la racine dentaire absente ou ayant été extraite. L’idée du remplacement de ces racines absentes par les implants n’est pas un concept nouveau mais elle n'a été qu'anecdotique tout au long de l’histoire. L’os, l’ivoire, les coquilles de mollusques, les pierres précieuses, les métaux ont été employés. Des procédés empiriques et isolés ont fait leurs apparitions depuis le début du XXe siècle. Quelques-uns ont connu un certain développement sans obtenir l’approbation de l’ensemble de la collectivité professionnelle et scientifique. Ils étaient en effet liés à un nombre de complications graves et d’échecs très important.
 Dans les années 1960-1970, des praticiens ont développé les implants lames, malgré un manque de données scientifiques et épidémiologiques.
 Dans la démarche intellectuelle de ces praticiens, le but était de retrouver la structure des tissus parodontaux autour d'une racine artificielle. Il se satisfaisaient d'une interposition de fibre conjonctive entre l'os alvéolaire et l'implant, imitant un ligament alvéolaire. Ils parlaient de fibro-intégration. 
 Cependant, l'image radiologique radio-claire entre l'implant et l'os n'était bien souvent que le premier signe de l'inflammation ou de l'infection qui détruit l'os alvéolaire et provoque la perte de l'implant.
 Au cours de la même période, le professeur Per-Ingvar Brånemark concevait en Suède un implant en titane, en forme de vis, qu’il a appelé « fixture ». L’implant s’est révélé capable d’établir une relation étroite avec l’os, relation dénommée « ostéo-intégration » par l'auteur. Des travaux scientifiques ont soutenu le développement du système[réf. souhaitée]. À partir de 1982, la technique s’est répandue dans tous les pays industrialisés. D'autres équipes conduisent des travaux similaires, en particulier en Suisse l'équipe du Professeur André Schroeder.
-Le système Cadimplant permet de coupler le scanner avec un logiciel de planification 3D et de poser des implants endo-osseux sans ouvrir la gencive. Cela permet de diminuer les suites opératoires de façon très significative, et permet de traiter des patients sous anticoagulants. La précison de positionnement des implants en fonction de la prothèse à réaliser est très nettement améliorée[1]. 
+Le système Cadimplant permet de coupler le scanner avec un logiciel de planification 3D et de poser des implants endo-osseux sans ouvrir la gencive. Cela permet de diminuer les suites opératoires de façon très significative, et permet de traiter des patients sous anticoagulants. La précison de positionnement des implants en fonction de la prothèse à réaliser est très nettement améliorée. 
 Depuis, d'autres systèmes existent, comme le Nobel guide ou le simplant.
 </t>
         </is>
@@ -552,7 +566,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « implant » est largement répandu en médecine, dans de nombreuses spécialités : valve coronaire, lentilles implantées en implantologie, prothèse de hanche. En réalité, il pourrait s'appliquer à d'autres techniques ou matériaux : une obturation coronaire est un type d'implant. Le terme d'« implantologie » en tant que technique de traitement n'est utilisé qu'en dentisterie. L'utilisation de métaux dans le tissu osseux est une routine en chirurgie orthopédique (broche, transfixation, vis d'ostéosynthèse, plaque métallique). Ces éléments pour la plupart ne sont pas en contact avec le milieu extérieur.
 Les implants sont des dispositifs destinés à créer au maxillaire ou à la mandibule des ancrages stables, résistants, efficaces, non iatrogènes, durables, sur lesquels s'adapte une prothèse amovible ou fixée en vue de redonner au patient une fonction adéquate, un confort satisfaisant et une esthétique optimum.
@@ -584,13 +600,49 @@
           <t>Différents types d'implants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux grandes catégories d'implants sont à différencier :
 les implants endo-osseux ;
-les implants juxta-osseux.
-Les implants juxta-osseux
-Les implants juxta-osseux (sous-périostés) ont été introduits dans les années 1940. Ce sont des éléments métalliques enfouis sous la muqueuse et reposant au contact de l'os maxillaire ou mandibulaire. 
+les implants juxta-osseux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différents types d'implants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les implants juxta-osseux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les implants juxta-osseux (sous-périostés) ont été introduits dans les années 1940. Ce sont des éléments métalliques enfouis sous la muqueuse et reposant au contact de l'os maxillaire ou mandibulaire. 
 Ils sont confectionnés au laboratoire de prothèse à partir d'empreinte du maxillaire ou de la mandibule. Ils sont réalisés la plupart du temps à partir d'un alliage Chrome-cobalt-Molybdène. Ils sont parfois recouverts de carbone ou de céramique.
 Le procédé comporte plusieurs étapes :
 incision et décollement de la muqueuse ;
@@ -605,15 +657,128 @@
 Il n'existe aucune étude prospective à moyen ou court terme concernant les résultats de pérennité des implants juxta-osseux.
 Compte tenu de l'état actuel des connaissances, l'implant juxta-osseux doit être considéré comme un procédé obsolète.
 Néanmoins, il existe toujours des inconditionnels et des défenseurs des  implants juxta-osseux. 
-Les implants endo-osseux
-Il s'agit d'éléments artificiels inclus directement au cœur du tissu osseux, après préparation d'une cavité soit par fraisage soit par forage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Différents types d'implants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les implants endo-osseux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'éléments artificiels inclus directement au cœur du tissu osseux, après préparation d'une cavité soit par fraisage soit par forage.
 Ils sont actuellement les plus utilisés : de très nombreux systèmes sont proposés sur le marché. Ils se présentent principalement sous la forme de vis, de cylindres ou de lames.
-Les implants lames
-Ce sont des implants métalliques de formes très diverses en fonction du site auquel ils sont destinés. Leur insertion dans le tissu osseux nécessite la réalisation d’une tranchée osseuse.	
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Différents types d'implants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les implants endo-osseux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les implants lames</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des implants métalliques de formes très diverses en fonction du site auquel ils sont destinés. Leur insertion dans le tissu osseux nécessite la réalisation d’une tranchée osseuse.	
 Ils ont été développés dès 1967 par Linkow. La forme de lame a été reprise en France par Cherchève. Initialement fabriqués en Vitallium, les implants de Linkow ont subi des améliorations : utilisation du titane, revêtement d'hydroxyapatite, moignon trans-gingival démontable permettant l'enfouissement des lames pendant une période de cicatrisation osseuse.
 Ils ont été utilisés avec des résultats assez positifs jusqu'au début des années 1990. Ils ont ensuite été distancés grâce aux avancées techniques des implants en forme de racine.
-Des implants  non vissés
-Implants-aiguilles de Scialom, 1962 ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Différents types d'implants</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les implants endo-osseux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Des implants  non vissés</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Implants-aiguilles de Scialom, 1962 ;
 Implants tridimensionnels T3D, (Dr Juillet) 1972 ;
 Diskimplant à insertion latéral (Scortecci) ;
 Implants en carbone vitrifié de Grenoble (États-Unis).
@@ -622,8 +787,47 @@
 préparation du canal radiculaire et forage au-delà de la zone apicale ;
 insertion de l'implant endodontique dans le canal de la dent et dans l'os sous-jacent situé au-delà de l'apex de la racine.
 Compte tenu des techniques actuelles de traitement des parodontites, les implants endodontiques doivent être considérés comme un procédé obsolète.
-Les implants en forme de vis, racines ou cylindre
-Les implants endo-osseux  en forme de vis ou de cylindre connaissent, depuis les années 1970-1980, un grand développement. Actuellement, les implants vissés ou impactés sont préférés aux implants-lames car ils bénéficient d'une instrumentation complémentaire calibrée qui facilite la mise en place et permet une bonne adaptation dans l'os.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Différents types d'implants</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les implants endo-osseux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Les implants en forme de vis, racines ou cylindre</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les implants endo-osseux  en forme de vis ou de cylindre connaissent, depuis les années 1970-1980, un grand développement. Actuellement, les implants vissés ou impactés sont préférés aux implants-lames car ils bénéficient d'une instrumentation complémentaire calibrée qui facilite la mise en place et permet une bonne adaptation dans l'os.
 Ces implants sont stabilisés dans l'os soit par vissage, après forage et taraudage, soit par impactage. Dans ce cas, le forage est réalisé à un diamètre légèrement inférieur à celui de l'implant qui est forcé en position au maillet chirurgical. Qu'ils soient vissés ou impactés, ces implants existent en différentes largeurs et diamètres permettant de répondre à de nombreuses situations.
 Branemark a développé un implant en titane, en forme de vis, possédant un hexagone dit externe à sa surface, qui permet de bloquer les éléments prothétiques. Ainsi tous les éléments prothétiques sont vissés dans l'implant en 1 ou plusieurs étages prothétiques. C'est cet implant qui a servi à l'ensemble des expérimentations qui ont montré l'efficacité des traitements implantaires. Il a servi de référence à l'implantologie pendant plus d'une dizaine d'années. 
 À partir de l'implant décrit et utilisé par l'équipe de Branemark, d'autres fabricants ont développé des concepts parallèles qui ont copié le système NobelPharma, qui l'ont amélioré et adapté au fil des évolutions techniques.
@@ -638,31 +842,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Implantologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Place de l'implantologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Des millions de patients à travers le monde ont été traités avec des implants ostéo-intégrés, avec une croissance de 10 % annuels. Plusieurs milliers de ces implants on fait l'objet d'études rigoureuses, parues dans des revues scientifiques internationales, en particulier le Clinical Oral Implants Research.
 L'utilisation des implants est enseignée dans toutes les facultés de chirurgie dentaire du monde. L'intérêt clinique des implants est démontré scientifiquement.
@@ -671,67 +877,106 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Implantologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Indications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les domaines de la prothèse.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Implantologie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ostéo-intégration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le développement de l'implantologie en tant que technique de traitement de l'édentement est lié au travail d'un chercheur suédois : le Professeur Per-Ingvar Brånemark  C'est un biologiste qui travaillait sur la revascularisation du tissu osseux. Il s'est aperçu que lorsqu'il plaçait des chambres en titane dans des os animaux pour examiner la reformation de l'os, ces pièces en titane se soudaient à l'os. Il conduit à partir de là une série d'expérimentations animales, met au moins un implant destiné à l'usage clinique humain, la vis MK4, et publie en 1977 une première étude bien documentée avec des résultats positifs à 10 ans[réf. souhaitée][2]. Il démontre qu'un implant en titane pur, implanté dans le tissu osseux, immobilisé sans contrainte s'entoure d'une couche d'os compact, sans interposition de tissu mou. Il va définir la notion d'ostéo-intégration, mot qu'il emploie dans son livre publié en 1977.
-En 1981, il publie l'étude du suivi à 15 ans de ce groupe, qui va lancer l'intérêt pour les implants qui va alors submerger l'ensemble du monde industrialisé[3].  Il annonce des résultats positifs au-dessus de 95 % à la mandibule, au-dessus de 90 % au maxillaire, pour les implants comptabilisés après la période de mise en fonction. Il donne comme indications principales de sa technique l'édentation totale mandibulaire.
-Définition
-L'ostéo-intégration : c'est la connexion directe anatomique et fonctionnelle entre un os vivant et sain et la surface d'un implant supportant une charge.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le développement de l'implantologie en tant que technique de traitement de l'édentement est lié au travail d'un chercheur suédois : le Professeur Per-Ingvar Brånemark  C'est un biologiste qui travaillait sur la revascularisation du tissu osseux. Il s'est aperçu que lorsqu'il plaçait des chambres en titane dans des os animaux pour examiner la reformation de l'os, ces pièces en titane se soudaient à l'os. Il conduit à partir de là une série d'expérimentations animales, met au moins un implant destiné à l'usage clinique humain, la vis MK4, et publie en 1977 une première étude bien documentée avec des résultats positifs à 10 ans[réf. souhaitée]. Il démontre qu'un implant en titane pur, implanté dans le tissu osseux, immobilisé sans contrainte s'entoure d'une couche d'os compact, sans interposition de tissu mou. Il va définir la notion d'ostéo-intégration, mot qu'il emploie dans son livre publié en 1977.
+En 1981, il publie l'étude du suivi à 15 ans de ce groupe, qui va lancer l'intérêt pour les implants qui va alors submerger l'ensemble du monde industrialisé.  Il annonce des résultats positifs au-dessus de 95 % à la mandibule, au-dessus de 90 % au maxillaire, pour les implants comptabilisés après la période de mise en fonction. Il donne comme indications principales de sa technique l'édentation totale mandibulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ostéo-intégration</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ostéo-intégration : c'est la connexion directe anatomique et fonctionnelle entre un os vivant et sain et la surface d'un implant supportant une charge.
 Il a décrit le contact direct entre les systèmes osseux haversien et la surface de l'implant. L'interface os-implant a été étudiée en microscopie optique (MO), en microscopie électronique (ME) et en microscopie électronique à balayage (MEB) sans que soit démontrée la moindre couche entre les deux éléments. On démontre une liaison parfaite entre les deux éléments[réf. nécessaire]. 
 Au contact de l'air, l'implant en titane se recouvre d'une couche d'oxyde de titane : c'est la passivation. Cette couche d'oxyde permet le développement de l'ostéo-intégration.
 Sur le plan de la cicatrisation, cette liaison s'établit comme une guérison d'un traumatisme osseux. En effet le forage est un traumatisme pour le tissu osseux qui réagit . Il se crée sur la périphérie de l'alvéole de forage une zone de nécrose osseuse listée d'environ 1 mm de largeur. Cette zone va évoluer selon le processus de cicatrisation du tissu osseux avec un remaniement qui commence par une phase d'ostéoclasie et d'élimination des cellules détruites. Ce remaniement débute une dizaine de jours après l'intervention. Il se forme une couche d'os immature, de type trabéculaire, peu résistant aux forces de mastication.
@@ -743,8 +988,43 @@
 Au niveau de la muqueuse buccale, la partie transgingivale va créer une liaison par attache directe type attache épithéliale, avec des hémidesmosomes au contact de la surface de titane. Voir cours sur les tissus mous.
 Le professeur Branemark conduit une série de conférences dans le monde entier et présente sa technique comme la seule ayant fait ses preuves, comme un dogme dont on ne peut dériver sans être sanctionné par l'échec. Il oblige[réf. souhaitée] les praticiens à un stage clinique en Suède, à l'achat du matériel chez Nobel Pharma et enregistre tous les implants vendus.
 Il énonce une technique rigoureuse indispensable pour obtenir l'ostéointégration.
-Impératifs pour obtenir l'ostéointégration
-Choix du matériau de l'implant.Actuellement, les implants endo-osseux sont fabriqués à partir de deux grandes catégories de matériaux : les métaux et les céramiques. Les implants sont essentiellement proposés :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Implantologie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Implantologie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ostéo-intégration</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Impératifs pour obtenir l'ostéointégration</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choix du matériau de l'implant.Actuellement, les implants endo-osseux sont fabriqués à partir de deux grandes catégories de matériaux : les métaux et les céramiques. Les implants sont essentiellement proposés :
 En titane commercialement pur (99,82 % Ti) ou alliage à base de titane (Ti Al6 V4 = 90 % Ti, 6 % Al, 4 % Vanadium). Ils sont parfois recouverts d'un spray de titane déposé au chalumeau à plasma. Ils peuvent aussi être revêtus d'hydroxyapatite ou d'alumine.
 En céramique à base d'oxyde d'aluminium (Al2O3). Certaines céramiques contiennent d'autres oxydes métalliques, notamment l'oxyde de zirconium, destinés à améliorer les propriétés mécaniques. Les implants en céramique les plus connus sont : implants CBS, implants Cerasand, implants Frialit.Certains implants sont recouverts d'une couche d'hydroxyapatite. L'hydroxyapatite permettrait une liaison plus rapide entre l'os et la surface de l'implant. Une liaison biochimique a été décrite. L'hydroxyapatite jouerait un rôle d'« ostéo-conduction ». Cependant, l'hydroxyapatite se résorbe et une libération d'hydroxyapatite se produit dans les tissus, ce qui aboutit à la perte de l'implant. De nombreux cas d'échecs d'implants HA sont rapportés[réf. souhaitée].
 L'état de surface des implants à surface rugueuse augmente le contact et favorise l'intégration également sa rapidité.
